--- a/Instance-excel/v2.14.xlsx
+++ b/Instance-excel/v2.14.xlsx
@@ -6,8 +6,9 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Batch" sheetId="2" r:id="rId2"/>
-    <x:sheet name="Defects" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Basis" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Batch" sheetId="3" r:id="rId3"/>
+    <x:sheet name="Defects" sheetId="4" r:id="rId4"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -15,7 +16,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+  <x:si>
+    <x:t>ItemNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>StackNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DefectNum</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PlateNum</x:t>
+  </x:si>
   <x:si>
     <x:t>Item_ID</x:t>
   </x:si>
@@ -398,6 +411,63 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
+  <x:dimension ref="A1:B4"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0">
+      <x:pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozenSplit"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="1" max="1" width="11.570625" style="0" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:2">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="n">
+        <x:v>361</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:2">
+      <x:c r="A2" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="n">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:2">
+      <x:c r="A3" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="n">
+        <x:v>203</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:2">
+      <x:c r="A4" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="n">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
   <x:dimension ref="A1:MX5"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
@@ -411,7 +481,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:362">
       <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B1" s="0" t="n">
         <x:v>0</x:v>
@@ -1499,7 +1569,7 @@
     </x:row>
     <x:row r="2" spans="1:362">
       <x:c r="A2" s="0" t="s">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
         <x:v>608</x:v>
@@ -2587,7 +2657,7 @@
     </x:row>
     <x:row r="3" spans="1:362">
       <x:c r="A3" s="0" t="s">
-        <x:v>2</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
         <x:v>308</x:v>
@@ -3675,7 +3745,7 @@
     </x:row>
     <x:row r="4" spans="1:362">
       <x:c r="A4" s="0" t="s">
-        <x:v>3</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
         <x:v>0</x:v>
@@ -4763,7 +4833,7 @@
     </x:row>
     <x:row r="5" spans="1:362">
       <x:c r="A5" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
         <x:v>1</x:v>
@@ -5858,7 +5928,7 @@
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5876,7 +5946,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:204">
       <x:c r="A1" s="0" t="s">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="B1" s="0" t="n">
         <x:v>0</x:v>
@@ -6490,7 +6560,7 @@
     </x:row>
     <x:row r="2" spans="1:204">
       <x:c r="A2" s="0" t="s">
-        <x:v>6</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B2" s="0" t="n">
         <x:v>1</x:v>
@@ -7104,7 +7174,7 @@
     </x:row>
     <x:row r="3" spans="1:204">
       <x:c r="A3" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="B3" s="0" t="n">
         <x:v>2539</x:v>
@@ -7718,7 +7788,7 @@
     </x:row>
     <x:row r="4" spans="1:204">
       <x:c r="A4" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B4" s="0" t="n">
         <x:v>3069</x:v>
@@ -8332,7 +8402,7 @@
     </x:row>
     <x:row r="5" spans="1:204">
       <x:c r="A5" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="B5" s="0" t="n">
         <x:v>2</x:v>
@@ -8946,7 +9016,7 @@
     </x:row>
     <x:row r="6" spans="1:204">
       <x:c r="A6" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="B6" s="0" t="n">
         <x:v>3</x:v>
